--- a/BASIC/Formula.xlsx
+++ b/BASIC/Formula.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>A</t>
   </si>
@@ -57,6 +57,81 @@
   </si>
   <si>
     <t>XOR</t>
+  </si>
+  <si>
+    <t>empName</t>
+  </si>
+  <si>
+    <t>Copy</t>
+  </si>
+  <si>
+    <t>SHIVAM</t>
+  </si>
+  <si>
+    <t>SONIYA</t>
+  </si>
+  <si>
+    <t>RIO</t>
+  </si>
+  <si>
+    <t>MEENA</t>
+  </si>
+  <si>
+    <t>PRIYA</t>
+  </si>
+  <si>
+    <t>Dig</t>
+  </si>
+  <si>
+    <t>raju</t>
+  </si>
+  <si>
+    <t>iferror</t>
+  </si>
+  <si>
+    <t>ifna</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>marks</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
@@ -113,7 +188,62 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="19">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -121,27 +251,6 @@
           <bgColor theme="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -158,25 +267,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B4:G8" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B4:G8" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="B4:G8"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="A" dataDxfId="7"/>
-    <tableColumn id="2" name="B" dataDxfId="6"/>
-    <tableColumn id="3" name="AND" dataDxfId="5">
+    <tableColumn id="1" name="A" dataDxfId="16"/>
+    <tableColumn id="2" name="B" dataDxfId="15"/>
+    <tableColumn id="3" name="AND" dataDxfId="14">
       <calculatedColumnFormula>AND(B5:C5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="OR" dataDxfId="4">
+    <tableColumn id="4" name="OR" dataDxfId="13">
       <calculatedColumnFormula>OR(B5:C5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="NOT" dataDxfId="3">
+    <tableColumn id="5" name="NOT" dataDxfId="12">
       <calculatedColumnFormula>NOT(B5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="XOR" dataDxfId="2">
-      <calculatedColumnFormula>_xlfn.XOR(B5:C5)</calculatedColumnFormula>
+    <tableColumn id="6" name="XOR" dataDxfId="11">
+      <calculatedColumnFormula>_xlfn.XOR(Table2[[#This Row],[A]:[B]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B13:E25" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6">
+  <autoFilter ref="B13:E25"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="empName" dataDxfId="10"/>
+    <tableColumn id="2" name="Copy" dataDxfId="9">
+      <calculatedColumnFormula>B14</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="iferror" dataDxfId="8">
+      <calculatedColumnFormula>IFERROR(B14,"-")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="ifna" dataDxfId="7">
+      <calculatedColumnFormula>_xlfn.IFNA(B14,"+")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B30:D41" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="B30:D41"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="student" dataDxfId="4"/>
+    <tableColumn id="2" name="marks" dataDxfId="3">
+      <calculatedColumnFormula>RANDBETWEEN(1,99)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="pass" dataDxfId="2">
+      <calculatedColumnFormula>IF(C31&gt;33,B31,"+")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -443,15 +587,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G8"/>
+  <dimension ref="B2:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="28" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -517,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="b">
-        <f>_xlfn.XOR(B5:C5)</f>
+        <f>_xlfn.XOR(Table2[[#This Row],[A]:[B]])</f>
         <v>0</v>
       </c>
     </row>
@@ -543,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="b">
-        <f>_xlfn.XOR(B6:C6)</f>
+        <f>_xlfn.XOR(Table2[[#This Row],[A]:[B]])</f>
         <v>1</v>
       </c>
     </row>
@@ -569,7 +718,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="b">
-        <f>_xlfn.XOR(B7:C7)</f>
+        <f>_xlfn.XOR(Table2[[#This Row],[A]:[B]])</f>
         <v>1</v>
       </c>
     </row>
@@ -595,14 +744,391 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="b">
-        <f>_xlfn.XOR(B8:C8)</f>
-        <v>0</v>
+        <f>_xlfn.XOR(Table2[[#This Row],[A]:[B]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f>B14</f>
+        <v>SHIVAM</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f>IFERROR(B14,"-")</f>
+        <v>SHIVAM</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f>_xlfn.IFNA(B14,"+")</f>
+        <v>SHIVAM</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" ref="C15:C25" si="1">B15</f>
+        <v>SONIYA</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f t="shared" ref="D15:D25" si="2">IFERROR(B15,"-")</f>
+        <v>SONIYA</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f>_xlfn.IFNA(B15,"+")</f>
+        <v>SONIYA</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>RIO</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>RIO</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f>_xlfn.IFNA(B16,"+")</f>
+        <v>RIO</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="e">
+        <f>JHBGDSJF</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C17" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="E17" s="1" t="e">
+        <f>_xlfn.IFNA(B17,"+")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MEENA</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MEENA</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f>_xlfn.IFNA(B18,"+")</f>
+        <v>MEENA</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C19" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f>_xlfn.IFNA(B19,"+")</f>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="e">
+        <f>SDKJFHDS</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C20" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="E20" s="1" t="e">
+        <f>_xlfn.IFNA(B20,"+")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PRIYA</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>PRIYA</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <f>_xlfn.IFNA(B21,"+")</f>
+        <v>PRIYA</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Dig</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Dig</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <f>_xlfn.IFNA(B22,"+")</f>
+        <v>Dig</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="e">
+        <f>#NUM!</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="C23" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="E23" s="1" t="e">
+        <f>_xlfn.IFNA(B23,"+")</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>raju</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>raju</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f>_xlfn.IFNA(B24,"+")</f>
+        <v>raju</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C25" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f>_xlfn.IFNA(B25,"+")</f>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="1">
+        <f ca="1">RANDBETWEEN(1,99)</f>
+        <v>19</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f ca="1">IF(C31&gt;33,B31,"+")</f>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" ref="C32:C41" ca="1" si="3">RANDBETWEEN(1,99)</f>
+        <v>55</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f t="shared" ref="D32:D41" ca="1" si="4">IF(C32&gt;33,B32,"+")</f>
+        <v>A2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>A3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>A4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="D38" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="D39" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>A9</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="D40" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="D41" s="1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>+</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/BASIC/Formula.xlsx
+++ b/BASIC/Formula.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="7440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="7440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Logical" sheetId="1" r:id="rId1"/>
+    <sheet name="Text" sheetId="2" r:id="rId2"/>
+    <sheet name="ASCII" sheetId="3" r:id="rId3"/>
+    <sheet name="aa" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>A</t>
   </si>
@@ -132,13 +135,67 @@
   </si>
   <si>
     <t>pass</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x0003_BOSSE     </t>
+  </si>
+  <si>
+    <t>Munna</t>
+  </si>
+  <si>
+    <t>Bharwad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>munna</t>
+  </si>
+  <si>
+    <t>computer</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>ajay</t>
+  </si>
+  <si>
+    <t>COMPUter</t>
+  </si>
+  <si>
+    <t>I am good enough.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,8 +203,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,6 +223,12 @@
       <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
       </patternFill>
     </fill>
   </fills>
@@ -173,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -184,11 +255,59 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -267,21 +386,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B4:G8" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B4:G8" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="B4:G8"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="A" dataDxfId="16"/>
-    <tableColumn id="2" name="B" dataDxfId="15"/>
-    <tableColumn id="3" name="AND" dataDxfId="14">
+    <tableColumn id="1" name="A" dataDxfId="23"/>
+    <tableColumn id="2" name="B" dataDxfId="22"/>
+    <tableColumn id="3" name="AND" dataDxfId="21">
       <calculatedColumnFormula>AND(B5:C5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="OR" dataDxfId="13">
+    <tableColumn id="4" name="OR" dataDxfId="20">
       <calculatedColumnFormula>OR(B5:C5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="NOT" dataDxfId="12">
+    <tableColumn id="5" name="NOT" dataDxfId="19">
       <calculatedColumnFormula>NOT(B5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="XOR" dataDxfId="11">
+    <tableColumn id="6" name="XOR" dataDxfId="18">
       <calculatedColumnFormula>_xlfn.XOR(Table2[[#This Row],[A]:[B]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -290,17 +409,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B13:E25" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B13:E25" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="B13:E25"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="empName" dataDxfId="10"/>
-    <tableColumn id="2" name="Copy" dataDxfId="9">
+    <tableColumn id="1" name="empName" dataDxfId="15"/>
+    <tableColumn id="2" name="Copy" dataDxfId="14">
       <calculatedColumnFormula>B14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="iferror" dataDxfId="8">
+    <tableColumn id="3" name="iferror" dataDxfId="13">
       <calculatedColumnFormula>IFERROR(B14,"-")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="ifna" dataDxfId="7">
+    <tableColumn id="4" name="ifna" dataDxfId="12">
       <calculatedColumnFormula>_xlfn.IFNA(B14,"+")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -309,18 +428,48 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B30:D41" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B30:D41" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="B30:D41"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="student" dataDxfId="4"/>
-    <tableColumn id="2" name="marks" dataDxfId="3">
+    <tableColumn id="1" name="student" dataDxfId="9"/>
+    <tableColumn id="2" name="marks" dataDxfId="8">
       <calculatedColumnFormula>RANDBETWEEN(1,99)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="pass" dataDxfId="2">
+    <tableColumn id="3" name="pass" dataDxfId="7">
       <calculatedColumnFormula>IF(C31&gt;33,B31,"+")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F18" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:F18"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="formula">
+      <calculatedColumnFormula>_xlfn.FORMULATEXT(B2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="result" dataDxfId="6"/>
+    <tableColumn id="3" name="C" dataDxfId="5"/>
+    <tableColumn id="4" name="D" dataDxfId="4"/>
+    <tableColumn id="5" name="E" dataDxfId="3"/>
+    <tableColumn id="6" name="F" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A2:B146" totalsRowShown="0">
+  <autoFilter ref="A2:B146"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2">
+      <calculatedColumnFormula>CHAR(A3)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -587,10 +736,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="B2:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,7 +927,7 @@
         <v>SHIVAM</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f>_xlfn.IFNA(B14,"+")</f>
+        <f t="shared" ref="E14:E25" si="1">_xlfn.IFNA(B14,"+")</f>
         <v>SHIVAM</v>
       </c>
     </row>
@@ -784,15 +936,15 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="str">
-        <f t="shared" ref="C15:C25" si="1">B15</f>
+        <f t="shared" ref="C15:C25" si="2">B15</f>
         <v>SONIYA</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f t="shared" ref="D15:D25" si="2">IFERROR(B15,"-")</f>
+        <f t="shared" ref="D15:D25" si="3">IFERROR(B15,"-")</f>
         <v>SONIYA</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f>_xlfn.IFNA(B15,"+")</f>
+        <f t="shared" si="1"/>
         <v>SONIYA</v>
       </c>
     </row>
@@ -801,15 +953,15 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>RIO</v>
-      </c>
-      <c r="D16" s="1" t="str">
         <f t="shared" si="2"/>
         <v>RIO</v>
       </c>
+      <c r="D16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>RIO</v>
+      </c>
       <c r="E16" s="1" t="str">
-        <f>_xlfn.IFNA(B16,"+")</f>
+        <f t="shared" si="1"/>
         <v>RIO</v>
       </c>
     </row>
@@ -819,15 +971,15 @@
         <v>#NAME?</v>
       </c>
       <c r="C17" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#NAME?</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="E17" s="1" t="e">
-        <f>_xlfn.IFNA(B17,"+")</f>
+        <f t="shared" si="1"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -836,15 +988,15 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>MEENA</v>
-      </c>
-      <c r="D18" s="1" t="str">
         <f t="shared" si="2"/>
         <v>MEENA</v>
       </c>
+      <c r="D18" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MEENA</v>
+      </c>
       <c r="E18" s="1" t="str">
-        <f>_xlfn.IFNA(B18,"+")</f>
+        <f t="shared" si="1"/>
         <v>MEENA</v>
       </c>
     </row>
@@ -853,15 +1005,15 @@
         <v>#N/A</v>
       </c>
       <c r="C19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f>_xlfn.IFNA(B19,"+")</f>
+        <f t="shared" si="1"/>
         <v>+</v>
       </c>
     </row>
@@ -871,15 +1023,15 @@
         <v>#NAME?</v>
       </c>
       <c r="C20" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#NAME?</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="E20" s="1" t="e">
-        <f>_xlfn.IFNA(B20,"+")</f>
+        <f t="shared" si="1"/>
         <v>#NAME?</v>
       </c>
     </row>
@@ -888,15 +1040,15 @@
         <v>17</v>
       </c>
       <c r="C21" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>PRIYA</v>
-      </c>
-      <c r="D21" s="1" t="str">
         <f t="shared" si="2"/>
         <v>PRIYA</v>
       </c>
+      <c r="D21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>PRIYA</v>
+      </c>
       <c r="E21" s="1" t="str">
-        <f>_xlfn.IFNA(B21,"+")</f>
+        <f t="shared" si="1"/>
         <v>PRIYA</v>
       </c>
     </row>
@@ -905,15 +1057,15 @@
         <v>18</v>
       </c>
       <c r="C22" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Dig</v>
-      </c>
-      <c r="D22" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Dig</v>
       </c>
+      <c r="D22" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Dig</v>
+      </c>
       <c r="E22" s="1" t="str">
-        <f>_xlfn.IFNA(B22,"+")</f>
+        <f t="shared" si="1"/>
         <v>Dig</v>
       </c>
     </row>
@@ -923,15 +1075,15 @@
         <v>#NUM!</v>
       </c>
       <c r="C23" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="E23" s="1" t="e">
-        <f>_xlfn.IFNA(B23,"+")</f>
+        <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -940,15 +1092,15 @@
         <v>19</v>
       </c>
       <c r="C24" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>raju</v>
-      </c>
-      <c r="D24" s="1" t="str">
         <f t="shared" si="2"/>
         <v>raju</v>
       </c>
+      <c r="D24" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>raju</v>
+      </c>
       <c r="E24" s="1" t="str">
-        <f>_xlfn.IFNA(B24,"+")</f>
+        <f t="shared" si="1"/>
         <v>raju</v>
       </c>
     </row>
@@ -957,15 +1109,15 @@
         <v>#N/A</v>
       </c>
       <c r="C25" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f>_xlfn.IFNA(B25,"+")</f>
+        <f t="shared" si="1"/>
         <v>+</v>
       </c>
     </row>
@@ -986,11 +1138,11 @@
       </c>
       <c r="C31" s="1">
         <f ca="1">RANDBETWEEN(1,99)</f>
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="D31" s="1" t="str">
         <f ca="1">IF(C31&gt;33,B31,"+")</f>
-        <v>+</v>
+        <v>A1</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
@@ -998,11 +1150,11 @@
         <v>25</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" ref="C32:C41" ca="1" si="3">RANDBETWEEN(1,99)</f>
-        <v>55</v>
+        <f t="shared" ref="C32:C41" ca="1" si="4">RANDBETWEEN(1,99)</f>
+        <v>83</v>
       </c>
       <c r="D32" s="1" t="str">
-        <f t="shared" ref="D32:D41" ca="1" si="4">IF(C32&gt;33,B32,"+")</f>
+        <f t="shared" ref="D32:D41" ca="1" si="5">IF(C32&gt;33,B32,"+")</f>
         <v>A2</v>
       </c>
     </row>
@@ -1011,11 +1163,11 @@
         <v>26</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>68</v>
       </c>
       <c r="D33" s="1" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>A3</v>
       </c>
     </row>
@@ -1024,11 +1176,11 @@
         <v>27</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>85</v>
       </c>
       <c r="D34" s="1" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>A4</v>
       </c>
     </row>
@@ -1037,12 +1189,12 @@
         <v>28</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>74</v>
       </c>
       <c r="D35" s="1" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>A5</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
@@ -1050,12 +1202,12 @@
         <v>29</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>38</v>
       </c>
       <c r="D36" s="1" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>A6</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
@@ -1063,12 +1215,12 @@
         <v>30</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>42</v>
       </c>
       <c r="D37" s="1" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>A7</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
@@ -1076,11 +1228,11 @@
         <v>31</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
       </c>
       <c r="D38" s="1" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>+</v>
       </c>
     </row>
@@ -1089,12 +1241,12 @@
         <v>32</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>24</v>
       </c>
       <c r="D39" s="1" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>A9</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>+</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
@@ -1102,12 +1254,12 @@
         <v>33</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>41</v>
       </c>
       <c r="D40" s="1" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>+</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>A10</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
@@ -1115,11 +1267,11 @@
         <v>34</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>16</v>
       </c>
       <c r="D41" s="1" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>+</v>
       </c>
     </row>
@@ -1131,4 +1283,1672 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B2)</f>
+        <v>=BAHTTEXT(C2)</v>
+      </c>
+      <c r="B2" t="str">
+        <f>BAHTTEXT(C2)</f>
+        <v>เจ็ดสิบแปดบาทถ้วน</v>
+      </c>
+      <c r="C2">
+        <v>78</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A18" ca="1" si="0">_xlfn.FORMULATEXT(B3)</f>
+        <v>=CHAR(C3)</v>
+      </c>
+      <c r="B3" t="str">
+        <f>CHAR(C3)</f>
+        <v>A</v>
+      </c>
+      <c r="C3">
+        <v>65</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=CLEAN(E4)</v>
+      </c>
+      <c r="B4" t="str">
+        <f>CLEAN(E4)</f>
+        <v xml:space="preserve">BOSSE     </v>
+      </c>
+      <c r="C4"/>
+      <c r="D4" t="str">
+        <f>CHAR(3)</f>
+        <v>_x0003_</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=CODE(D5)</v>
+      </c>
+      <c r="B5">
+        <f>CODE(D5)</f>
+        <v>66</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=CONCATENATE(C6," ",E6)</v>
+      </c>
+      <c r="B6" t="str">
+        <f>CONCATENATE(C6," ",E6)</f>
+        <v>Munna Bharwad</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=DOLLAR(D7,3)</v>
+      </c>
+      <c r="B7" t="str">
+        <f>DOLLAR(D7,3)</f>
+        <v>$8,999.123</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7">
+        <v>8999.1234000000004</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=EXACT(C8,E8)</v>
+      </c>
+      <c r="B8" t="b">
+        <f>EXACT(C8,E8)</f>
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=FIND(E9,C9)</v>
+      </c>
+      <c r="B9">
+        <f>FIND(E9,C9)</f>
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=FIXED(D10,1,FALSE)</v>
+      </c>
+      <c r="B10" t="str">
+        <f>FIXED(D10,1,FALSE)</f>
+        <v>89,964.5</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10">
+        <v>89964.456699999995</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=LEFT(C11,2)</v>
+      </c>
+      <c r="B11" t="str">
+        <f>LEFT(C11,2)</f>
+        <v>co</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=RIGHT(C12,2)</v>
+      </c>
+      <c r="B12" t="str">
+        <f>RIGHT(C12,2)</f>
+        <v>er</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=LEN(D13)</v>
+      </c>
+      <c r="B13" s="4">
+        <f>LEN(D13)</f>
+        <v>4</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=LOWER(E14)</v>
+      </c>
+      <c r="B14" s="4" t="str">
+        <f>LOWER(E14)</f>
+        <v>computer</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=MID(C15,4,3)</v>
+      </c>
+      <c r="B15" s="4" t="str">
+        <f>MID(C15,4,3)</f>
+        <v>put</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=NUMBERVALUE("89334559",4,9)</v>
+      </c>
+      <c r="B16" s="4">
+        <f>_xlfn.NUMBERVALUE("89334559",4,9)</f>
+        <v>833.55899999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=NUMBERVALUE(C17,D17,E17)</v>
+      </c>
+      <c r="B17" s="4">
+        <f>_xlfn.NUMBERVALUE(C17,D17,E17)</f>
+        <v>8.77</v>
+      </c>
+      <c r="C17" s="4">
+        <v>89377</v>
+      </c>
+      <c r="D17" s="4">
+        <v>3</v>
+      </c>
+      <c r="E17" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=PROPER(D18)</v>
+      </c>
+      <c r="B18" s="4" t="str">
+        <f>PROPER(D18)</f>
+        <v>I Am Good Enough.</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B146"/>
+  <sheetViews>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="str">
+        <f>CHAR(A3)</f>
+        <v>_x0001_</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" ref="B4:B67" si="0">CHAR(A4)</f>
+        <v>_x0002_</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>_x0003_</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>_x0004_</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>_x0005_</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>_x0006_</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>_x0007_</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>_x0008_</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">	</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>_x000B_</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>_x000C_</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>_x000D_</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>_x000E_</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>_x000F_</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>_x0010_</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>_x0011_</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>_x0012_</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>_x0013_</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>_x0014_</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>_x0015_</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>_x0016_</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>_x0017_</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>_x0018_</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>_x0019_</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>_x001A_</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>_x001B_</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>_x001C_</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>_x001D_</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>_x001E_</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>_x001F_</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>"</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>#</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>$</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>%</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>&amp;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>'</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>(</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>)</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>/</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="str">
+        <f>CHAR(A55)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>:</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>;</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>=</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>&gt;</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v>?</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" si="0"/>
+        <v>@</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" ref="B68:B131" si="1">CHAR(A68)</f>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="1"/>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="1"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="1"/>
+        <v>H</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="1"/>
+        <v>I</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="1"/>
+        <v>J</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="1"/>
+        <v>K</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="1"/>
+        <v>L</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="1"/>
+        <v>N</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="1"/>
+        <v>P</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="1"/>
+        <v>Q</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="1"/>
+        <v>R</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" si="1"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" si="1"/>
+        <v>U</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="1"/>
+        <v>V</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" t="str">
+        <f t="shared" si="1"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" t="str">
+        <f t="shared" si="1"/>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" t="str">
+        <f t="shared" si="1"/>
+        <v>Z</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" t="str">
+        <f t="shared" si="1"/>
+        <v>[</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" t="str">
+        <f t="shared" si="1"/>
+        <v>\</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" t="str">
+        <f t="shared" si="1"/>
+        <v>]</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" t="str">
+        <f t="shared" si="1"/>
+        <v>^</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" t="str">
+        <f t="shared" si="1"/>
+        <v>_</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" t="str">
+        <f t="shared" si="1"/>
+        <v>`</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" t="str">
+        <f t="shared" si="1"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" t="str">
+        <f t="shared" si="1"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" t="str">
+        <f t="shared" si="1"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" t="str">
+        <f t="shared" si="1"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" t="str">
+        <f t="shared" si="1"/>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" t="str">
+        <f t="shared" si="1"/>
+        <v>f</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" t="str">
+        <f t="shared" si="1"/>
+        <v>g</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" t="str">
+        <f t="shared" si="1"/>
+        <v>h</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" t="str">
+        <f t="shared" si="1"/>
+        <v>i</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" t="str">
+        <f t="shared" si="1"/>
+        <v>j</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" t="str">
+        <f t="shared" si="1"/>
+        <v>k</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" t="str">
+        <f t="shared" si="1"/>
+        <v>l</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" t="str">
+        <f t="shared" si="1"/>
+        <v>m</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" t="str">
+        <f t="shared" si="1"/>
+        <v>n</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" t="str">
+        <f t="shared" si="1"/>
+        <v>o</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" t="str">
+        <f t="shared" si="1"/>
+        <v>p</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" t="str">
+        <f t="shared" si="1"/>
+        <v>q</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" t="str">
+        <f t="shared" si="1"/>
+        <v>r</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" t="str">
+        <f t="shared" si="1"/>
+        <v>s</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" t="str">
+        <f t="shared" si="1"/>
+        <v>t</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" t="str">
+        <f t="shared" si="1"/>
+        <v>u</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" t="str">
+        <f t="shared" si="1"/>
+        <v>v</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" t="str">
+        <f t="shared" si="1"/>
+        <v>w</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" t="str">
+        <f t="shared" si="1"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" t="str">
+        <f t="shared" si="1"/>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124" t="str">
+        <f t="shared" si="1"/>
+        <v>z</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" t="str">
+        <f t="shared" si="1"/>
+        <v>{</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126" t="str">
+        <f t="shared" si="1"/>
+        <v>|</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127" t="str">
+        <f t="shared" si="1"/>
+        <v>}</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" t="str">
+        <f t="shared" si="1"/>
+        <v>~</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129" t="str">
+        <f t="shared" si="1"/>
+        <v></v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" t="str">
+        <f t="shared" si="1"/>
+        <v>€</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131" t="str">
+        <f t="shared" si="1"/>
+        <v></v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132" t="str">
+        <f t="shared" ref="B132:B146" si="2">CHAR(A132)</f>
+        <v>‚</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" t="str">
+        <f t="shared" si="2"/>
+        <v>ƒ</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" t="str">
+        <f t="shared" si="2"/>
+        <v>„</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" t="str">
+        <f t="shared" si="2"/>
+        <v>…</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" t="str">
+        <f t="shared" si="2"/>
+        <v>†</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137" t="str">
+        <f t="shared" si="2"/>
+        <v>‡</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138" t="str">
+        <f t="shared" si="2"/>
+        <v>ˆ</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139" t="str">
+        <f t="shared" si="2"/>
+        <v>‰</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140" t="str">
+        <f t="shared" si="2"/>
+        <v>Š</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141" t="str">
+        <f t="shared" si="2"/>
+        <v>‹</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142" t="str">
+        <f t="shared" si="2"/>
+        <v>Œ</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143" t="str">
+        <f t="shared" si="2"/>
+        <v></v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144" t="str">
+        <f t="shared" si="2"/>
+        <v>Ž</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145" t="str">
+        <f t="shared" si="2"/>
+        <v></v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146" t="str">
+        <f t="shared" si="2"/>
+        <v></v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>454</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BASIC/Formula.xlsx
+++ b/BASIC/Formula.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>A</t>
   </si>
@@ -189,6 +189,18 @@
   </si>
   <si>
     <t>I am good enough.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number likh </t>
+  </si>
+  <si>
+    <t>best name</t>
+  </si>
+  <si>
+    <t>Hello peter, I am peter, how are u peter.</t>
+  </si>
+  <si>
+    <t>Munna bhai</t>
   </si>
 </sst>
 </file>
@@ -212,7 +224,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,8 +243,14 @@
         <bgColor theme="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -240,11 +258,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -258,56 +344,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -386,21 +466,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B4:G8" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B4:G8" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="B4:G8"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="A" dataDxfId="23"/>
-    <tableColumn id="2" name="B" dataDxfId="22"/>
-    <tableColumn id="3" name="AND" dataDxfId="21">
+    <tableColumn id="1" name="A" dataDxfId="16"/>
+    <tableColumn id="2" name="B" dataDxfId="15"/>
+    <tableColumn id="3" name="AND" dataDxfId="14">
       <calculatedColumnFormula>AND(B5:C5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="OR" dataDxfId="20">
+    <tableColumn id="4" name="OR" dataDxfId="13">
       <calculatedColumnFormula>OR(B5:C5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="NOT" dataDxfId="19">
+    <tableColumn id="5" name="NOT" dataDxfId="12">
       <calculatedColumnFormula>NOT(B5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="XOR" dataDxfId="18">
+    <tableColumn id="6" name="XOR" dataDxfId="11">
       <calculatedColumnFormula>_xlfn.XOR(Table2[[#This Row],[A]:[B]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -409,17 +489,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B13:E25" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B13:E25" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="B13:E25"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="empName" dataDxfId="15"/>
-    <tableColumn id="2" name="Copy" dataDxfId="14">
+    <tableColumn id="1" name="empName" dataDxfId="8"/>
+    <tableColumn id="2" name="Copy" dataDxfId="7">
       <calculatedColumnFormula>B14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="iferror" dataDxfId="13">
+    <tableColumn id="3" name="iferror" dataDxfId="6">
       <calculatedColumnFormula>IFERROR(B14,"-")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="ifna" dataDxfId="12">
+    <tableColumn id="4" name="ifna" dataDxfId="5">
       <calculatedColumnFormula>_xlfn.IFNA(B14,"+")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -428,14 +508,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B30:D41" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B30:D41" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="B30:D41"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="student" dataDxfId="9"/>
-    <tableColumn id="2" name="marks" dataDxfId="8">
+    <tableColumn id="1" name="student" dataDxfId="2"/>
+    <tableColumn id="2" name="marks" dataDxfId="1">
       <calculatedColumnFormula>RANDBETWEEN(1,99)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="pass" dataDxfId="7">
+    <tableColumn id="3" name="pass" dataDxfId="0">
       <calculatedColumnFormula>IF(C31&gt;33,B31,"+")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -444,23 +524,6 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F18" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:F18"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="formula">
-      <calculatedColumnFormula>_xlfn.FORMULATEXT(B2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" name="result" dataDxfId="6"/>
-    <tableColumn id="3" name="C" dataDxfId="5"/>
-    <tableColumn id="4" name="D" dataDxfId="4"/>
-    <tableColumn id="5" name="E" dataDxfId="3"/>
-    <tableColumn id="6" name="F" dataDxfId="2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A2:B146" totalsRowShown="0">
   <autoFilter ref="A2:B146"/>
   <tableColumns count="2">
@@ -1138,11 +1201,11 @@
       </c>
       <c r="C31" s="1">
         <f ca="1">RANDBETWEEN(1,99)</f>
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="D31" s="1" t="str">
         <f ca="1">IF(C31&gt;33,B31,"+")</f>
-        <v>A1</v>
+        <v>+</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
@@ -1151,7 +1214,7 @@
       </c>
       <c r="C32" s="1">
         <f t="shared" ref="C32:C41" ca="1" si="4">RANDBETWEEN(1,99)</f>
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="D32" s="1" t="str">
         <f t="shared" ref="D32:D41" ca="1" si="5">IF(C32&gt;33,B32,"+")</f>
@@ -1164,11 +1227,11 @@
       </c>
       <c r="C33" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="D33" s="1" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>A3</v>
+        <v>+</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
@@ -1177,7 +1240,7 @@
       </c>
       <c r="C34" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D34" s="1" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1190,7 +1253,7 @@
       </c>
       <c r="C35" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D35" s="1" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1203,7 +1266,7 @@
       </c>
       <c r="C36" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="D36" s="1" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1216,11 +1279,11 @@
       </c>
       <c r="C37" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D37" s="1" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>A7</v>
+        <v>+</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
@@ -1229,11 +1292,11 @@
       </c>
       <c r="C38" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="D38" s="1" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>+</v>
+        <v>A8</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
@@ -1242,7 +1305,7 @@
       </c>
       <c r="C39" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D39" s="1" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1255,11 +1318,11 @@
       </c>
       <c r="C40" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D40" s="1" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>A10</v>
+        <v>+</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
@@ -1268,11 +1331,11 @@
       </c>
       <c r="C41" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D41" s="1" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>+</v>
+        <v>A11</v>
       </c>
     </row>
   </sheetData>
@@ -1290,315 +1353,403 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="46.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" style="4" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" style="4" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
+      <c r="A2" s="11" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B2)</f>
         <v>=BAHTTEXT(C2)</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2" s="12" t="str">
         <f>BAHTTEXT(C2)</f>
         <v>เจ็ดสิบแปดบาทถ้วน</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="12">
         <v>78</v>
       </c>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
+      <c r="A3" s="14" t="str">
         <f t="shared" ref="A3:A18" ca="1" si="0">_xlfn.FORMULATEXT(B3)</f>
         <v>=CHAR(C3)</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3" s="15" t="str">
         <f>CHAR(C3)</f>
         <v>A</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="15">
         <v>65</v>
       </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
+      <c r="A4" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=CLEAN(E4)</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4" s="12" t="str">
         <f>CLEAN(E4)</f>
         <v xml:space="preserve">BOSSE     </v>
       </c>
-      <c r="C4"/>
-      <c r="D4" t="str">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12" t="str">
         <f>CHAR(3)</f>
         <v>_x0003_</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F4"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
+      <c r="A5" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=CODE(D5)</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="15">
         <f>CODE(D5)</f>
         <v>66</v>
       </c>
-      <c r="C5"/>
-      <c r="D5" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E5"/>
-      <c r="F5"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
+      <c r="A6" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=CONCATENATE(C6," ",E6)</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B6" s="12" t="str">
         <f>CONCATENATE(C6," ",E6)</f>
         <v>Munna Bharwad</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F6"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
+      <c r="A7" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=DOLLAR(D7,3)</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B7" s="15" t="str">
         <f>DOLLAR(D7,3)</f>
         <v>$8,999.123</v>
       </c>
-      <c r="C7"/>
-      <c r="D7">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15">
         <v>8999.1234000000004</v>
       </c>
-      <c r="E7"/>
-      <c r="F7"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
+      <c r="A8" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=EXACT(C8,E8)</v>
       </c>
-      <c r="B8" t="b">
+      <c r="B8" s="12" t="b">
         <f>EXACT(C8,E8)</f>
         <v>0</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D8"/>
-      <c r="E8" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F8"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
+      <c r="A9" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=FIND(E9,C9)</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="15">
         <f>FIND(E9,C9)</f>
         <v>4</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D9"/>
-      <c r="E9" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F9"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
+      <c r="A10" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=FIXED(D10,1,FALSE)</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B10" s="12" t="str">
         <f>FIXED(D10,1,FALSE)</f>
         <v>89,964.5</v>
       </c>
-      <c r="C10"/>
-      <c r="D10">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12">
         <v>89964.456699999995</v>
       </c>
-      <c r="E10"/>
-      <c r="F10"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
+      <c r="A11" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=LEFT(C11,2)</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B11" s="15" t="str">
         <f>LEFT(C11,2)</f>
         <v>co</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
+      <c r="A12" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=RIGHT(C12,2)</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B12" s="12" t="str">
         <f>RIGHT(C12,2)</f>
         <v>er</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
+      <c r="A13" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=LEN(D13)</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="17">
         <f>LEN(D13)</f>
         <v>4</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17" t="s">
         <v>51</v>
       </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
+      <c r="A14" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=LOWER(E14)</v>
       </c>
-      <c r="B14" s="4" t="str">
+      <c r="B14" s="19" t="str">
         <f>LOWER(E14)</f>
         <v>computer</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19" t="s">
         <v>52</v>
       </c>
+      <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
+      <c r="A15" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=MID(C15,4,3)</v>
       </c>
-      <c r="B15" s="4" t="str">
+      <c r="B15" s="17" t="str">
         <f>MID(C15,4,3)</f>
         <v>put</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="17" t="s">
         <v>47</v>
       </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
+      <c r="A16" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=NUMBERVALUE("89334559",4,9)</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="19">
         <f>_xlfn.NUMBERVALUE("89334559",4,9)</f>
         <v>833.55899999999997</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=NUMBERVALUE(C17,D17,E17)</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="17">
         <f>_xlfn.NUMBERVALUE(C17,D17,E17)</f>
         <v>8.77</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="17">
         <v>89377</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="17">
         <v>3</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="17">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=PROPER(D18)</v>
       </c>
-      <c r="B18" s="4" t="str">
+      <c r="B18" s="19" t="str">
         <f>PROPER(D18)</f>
         <v>I Am Good Enough.</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="19" t="s">
         <v>53</v>
       </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B19)</f>
+        <v>=REPLACE(Text!$D19,4,3,"GET")</v>
+      </c>
+      <c r="B19" s="5" t="str">
+        <f>REPLACE(Text!$D19,4,3,"GET")</f>
+        <v>comGETer</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="str">
+        <f t="shared" ref="A20:A23" ca="1" si="1">_xlfn.FORMULATEXT(B20)</f>
+        <v>=REPT(E20,2)</v>
+      </c>
+      <c r="B20" s="4" t="str">
+        <f>REPT(E20,2)</f>
+        <v xml:space="preserve">number likh number likh </v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=SEARCH("st",D21)</v>
+      </c>
+      <c r="B21" s="4">
+        <f>SEARCH("st",D21)</f>
+        <v>3</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=SUBSTITUTE(C22,"peter","Munna",2)</v>
+      </c>
+      <c r="B22" s="4" t="str">
+        <f>SUBSTITUTE(C22,"peter","Munna",2)</f>
+        <v>Hello peter, I am Munna, how are u peter.</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=REPLACE(D23,7,4,"Bharwad")</v>
+      </c>
+      <c r="B23" s="4" t="str">
+        <f>REPLACE(D23,7,4,"Bharwad")</f>
+        <v>Munna Bharwad</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C22:F22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 

--- a/BASIC/Formula.xlsx
+++ b/BASIC/Formula.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>A</t>
   </si>
@@ -201,12 +201,30 @@
   </si>
   <si>
     <t>Munna bhai</t>
+  </si>
+  <si>
+    <t>TEXTTTTT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Munna              </t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>simran CoDer</t>
+  </si>
+  <si>
+    <t>Hii me, how are you. I am best me</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$₹-447]#,##0.00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -381,6 +399,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1201,11 +1225,11 @@
       </c>
       <c r="C31" s="1">
         <f ca="1">RANDBETWEEN(1,99)</f>
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D31" s="1" t="str">
         <f ca="1">IF(C31&gt;33,B31,"+")</f>
-        <v>+</v>
+        <v>A1</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
@@ -1214,11 +1238,11 @@
       </c>
       <c r="C32" s="1">
         <f t="shared" ref="C32:C41" ca="1" si="4">RANDBETWEEN(1,99)</f>
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D32" s="1" t="str">
         <f t="shared" ref="D32:D41" ca="1" si="5">IF(C32&gt;33,B32,"+")</f>
-        <v>A2</v>
+        <v>+</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
@@ -1227,11 +1251,11 @@
       </c>
       <c r="C33" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D33" s="1" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>+</v>
+        <v>A3</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
@@ -1240,11 +1264,11 @@
       </c>
       <c r="C34" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="D34" s="1" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>A4</v>
+        <v>+</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
@@ -1253,11 +1277,11 @@
       </c>
       <c r="C35" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="D35" s="1" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>A5</v>
+        <v>+</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
@@ -1266,7 +1290,7 @@
       </c>
       <c r="C36" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="D36" s="1" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1279,11 +1303,11 @@
       </c>
       <c r="C37" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="D37" s="1" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>+</v>
+        <v>A7</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
@@ -1292,11 +1316,11 @@
       </c>
       <c r="C38" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="D38" s="1" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>A8</v>
+        <v>+</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
@@ -1305,7 +1329,7 @@
       </c>
       <c r="C39" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D39" s="1" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1318,11 +1342,11 @@
       </c>
       <c r="C40" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D40" s="1" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>+</v>
+        <v>A10</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
@@ -1331,7 +1355,7 @@
       </c>
       <c r="C41" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D41" s="1" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1353,10 +1377,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1692,7 +1716,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
-        <f t="shared" ref="A20:A23" ca="1" si="1">_xlfn.FORMULATEXT(B20)</f>
+        <f t="shared" ref="A20:A29" ca="1" si="1">_xlfn.FORMULATEXT(B20)</f>
         <v>=REPT(E20,2)</v>
       </c>
       <c r="B20" s="4" t="str">
@@ -1745,11 +1769,114 @@
         <v>57</v>
       </c>
     </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=T(D24)</v>
+      </c>
+      <c r="B24" s="4" t="str">
+        <f>T(D24)</f>
+        <v>TEXTTTTT</v>
+      </c>
+      <c r="C24" s="4">
+        <v>78</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=TEXT(E25,"DDDD, DD-MMM-YY")</v>
+      </c>
+      <c r="B25" s="4" t="str">
+        <f>TEXT(E25,"DDDD, DD-MMM-YY")</f>
+        <v>Thursday, 23-Jan-25</v>
+      </c>
+      <c r="E25" s="22">
+        <f>DATE(2023,25,23)</f>
+        <v>45680</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=TRIM(E26)</v>
+      </c>
+      <c r="B26" s="4" t="str">
+        <f>TRIM(E26)</f>
+        <v>Munna</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=UNICHAR(D27)</v>
+      </c>
+      <c r="B27" s="4" t="str">
+        <f>_xlfn.UNICHAR(D27)</f>
+        <v>A</v>
+      </c>
+      <c r="D27" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=UNICODE(D28)</v>
+      </c>
+      <c r="B28" s="4">
+        <f>_xlfn.UNICODE(D28)</f>
+        <v>90</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=UPPER(E29)</v>
+      </c>
+      <c r="B29" s="4" t="str">
+        <f>UPPER(E29)</f>
+        <v>SIMRAN CODER</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="4">
+        <f>VALUE(D30)</f>
+        <v>43</v>
+      </c>
+      <c r="D30" s="23">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="str">
+        <f>SUBSTITUTE(D31,"me","Coder")</f>
+        <v>Hii Coder, how are you. I am best Coder</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="21"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C22:F22"/>
+    <mergeCell ref="D31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1757,8 +1884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B146"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BASIC/Formula.xlsx
+++ b/BASIC/Formula.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="7440" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="7440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Logical" sheetId="1" r:id="rId1"/>
     <sheet name="Text" sheetId="2" r:id="rId2"/>
-    <sheet name="ASCII" sheetId="3" r:id="rId3"/>
-    <sheet name="aa" sheetId="5" r:id="rId4"/>
+    <sheet name="Date" sheetId="6" r:id="rId3"/>
+    <sheet name="ASCII" sheetId="3" r:id="rId4"/>
+    <sheet name="aa" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -222,14 +223,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$₹-447]#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Shruti"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -237,7 +239,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Shruti"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -348,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -398,15 +400,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -832,24 +838,24 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="12.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
     <col min="7" max="7" width="28" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
@@ -863,7 +869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -883,7 +889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1" t="b">
         <f>TRUE</f>
         <v>1</v>
@@ -909,7 +915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1" t="b">
         <f>TRUE</f>
         <v>1</v>
@@ -935,7 +941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1" t="b">
         <f>FALSE</f>
         <v>0</v>
@@ -961,7 +967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1" t="b">
         <f>FALSE</f>
         <v>0</v>
@@ -987,7 +993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1001,7 +1007,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1018,7 +1024,7 @@
         <v>SHIVAM</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1035,7 +1041,7 @@
         <v>SONIYA</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1052,7 +1058,7 @@
         <v>RIO</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1" t="e">
         <f>JHBGDSJF</f>
         <v>#NAME?</v>
@@ -1070,7 +1076,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1087,7 +1093,7 @@
         <v>MEENA</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1" t="e">
         <v>#N/A</v>
       </c>
@@ -1104,7 +1110,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1" t="e">
         <f>SDKJFHDS</f>
         <v>#NAME?</v>
@@ -1122,7 +1128,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,7 +1145,7 @@
         <v>PRIYA</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
@@ -1156,7 +1162,7 @@
         <v>Dig</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1" t="e">
         <f>#NUM!</f>
         <v>#NUM!</v>
@@ -1174,7 +1180,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1191,7 +1197,7 @@
         <v>raju</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1" t="e">
         <v>#N/A</v>
       </c>
@@ -1208,7 +1214,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1" t="s">
         <v>22</v>
       </c>
@@ -1219,143 +1225,143 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="1">
         <f ca="1">RANDBETWEEN(1,99)</f>
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D31" s="1" t="str">
         <f ca="1">IF(C31&gt;33,B31,"+")</f>
         <v>A1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" ref="C32:C41" ca="1" si="4">RANDBETWEEN(1,99)</f>
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="D32" s="1" t="str">
         <f t="shared" ref="D32:D41" ca="1" si="5">IF(C32&gt;33,B32,"+")</f>
-        <v>+</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+        <v>A2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D33" s="1" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>A3</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D34" s="1" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>+</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+        <v>A4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D35" s="1" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>+</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+        <v>A5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="D36" s="1" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>A6</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+        <v>+</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="D37" s="1" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>A7</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+        <v>+</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D38" s="1" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>+</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="D39" s="1" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>+</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+        <v>A9</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D40" s="1" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>A10</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D41" s="1" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1379,21 +1385,21 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="46.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="46.5546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="37.5546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="21.75" x14ac:dyDescent="0.6">
       <c r="A1" s="8" t="s">
         <v>36</v>
       </c>
@@ -1413,7 +1419,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="11" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B2)</f>
         <v>=BAHTTEXT(C2)</v>
@@ -1429,7 +1435,7 @@
       <c r="E2" s="12"/>
       <c r="F2" s="13"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="14" t="str">
         <f t="shared" ref="A3:A18" ca="1" si="0">_xlfn.FORMULATEXT(B3)</f>
         <v>=CHAR(C3)</v>
@@ -1445,7 +1451,7 @@
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=CLEAN(E4)</v>
@@ -1464,7 +1470,7 @@
       </c>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=CODE(D5)</v>
@@ -1480,7 +1486,7 @@
       <c r="E5" s="15"/>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=CONCATENATE(C6," ",E6)</v>
@@ -1500,7 +1506,7 @@
       </c>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=DOLLAR(D7,3)</v>
@@ -1516,7 +1522,7 @@
       <c r="E7" s="15"/>
       <c r="F7" s="16"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=EXACT(C8,E8)</v>
@@ -1534,7 +1540,7 @@
       </c>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=FIND(E9,C9)</v>
@@ -1552,7 +1558,7 @@
       </c>
       <c r="F9" s="16"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=FIXED(D10,1,FALSE)</v>
@@ -1568,7 +1574,7 @@
       <c r="E10" s="12"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=LEFT(C11,2)</v>
@@ -1584,7 +1590,7 @@
       <c r="E11" s="15"/>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=RIGHT(C12,2)</v>
@@ -1600,7 +1606,7 @@
       <c r="E12" s="12"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=LEN(D13)</v>
@@ -1616,7 +1622,7 @@
       <c r="E13" s="17"/>
       <c r="F13" s="18"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=LOWER(E14)</v>
@@ -1632,7 +1638,7 @@
       </c>
       <c r="F14" s="20"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=MID(C15,4,3)</v>
@@ -1648,7 +1654,7 @@
       <c r="E15" s="17"/>
       <c r="F15" s="18"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=NUMBERVALUE("89334559",4,9)</v>
@@ -1662,7 +1668,7 @@
       <c r="E16" s="19"/>
       <c r="F16" s="20"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=NUMBERVALUE(C17,D17,E17)</v>
@@ -1682,7 +1688,7 @@
       </c>
       <c r="F17" s="18"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=PROPER(D18)</v>
@@ -1698,7 +1704,7 @@
       <c r="E18" s="19"/>
       <c r="F18" s="20"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B19)</f>
         <v>=REPLACE(Text!$D19,4,3,"GET")</v>
@@ -1714,7 +1720,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7" t="str">
         <f t="shared" ref="A20:A29" ca="1" si="1">_xlfn.FORMULATEXT(B20)</f>
         <v>=REPT(E20,2)</v>
@@ -1727,7 +1733,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=SEARCH("st",D21)</v>
@@ -1740,7 +1746,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=SUBSTITUTE(C22,"peter","Munna",2)</v>
@@ -1749,14 +1755,14 @@
         <f>SUBSTITUTE(C22,"peter","Munna",2)</f>
         <v>Hello peter, I am Munna, how are u peter.</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=REPLACE(D23,7,4,"Bharwad")</v>
@@ -1769,7 +1775,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=T(D24)</v>
@@ -1785,7 +1791,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=TEXT(E25,"DDDD, DD-MMM-YY")</v>
@@ -1794,12 +1800,12 @@
         <f>TEXT(E25,"DDDD, DD-MMM-YY")</f>
         <v>Thursday, 23-Jan-25</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="21">
         <f>DATE(2023,25,23)</f>
         <v>45680</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=TRIM(E26)</v>
@@ -1812,7 +1818,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=UNICHAR(D27)</v>
@@ -1825,7 +1831,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=UNICODE(D28)</v>
@@ -1838,7 +1844,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=UPPER(E29)</v>
@@ -1851,24 +1857,24 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="4">
         <f>VALUE(D30)</f>
         <v>43</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="22">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="4" t="str">
         <f>SUBSTITUTE(D31,"me","Coder")</f>
         <v>Hii Coder, how are you. I am best Coder</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="21"/>
+      <c r="E31" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1882,18 +1888,306 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="34.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C2)</f>
+        <v>=DATE(2022,13,40)</v>
+      </c>
+      <c r="C2" s="23">
+        <f>DATE(2022,13,40)</f>
+        <v>44966</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A22" ca="1" si="0">_xlfn.FORMULATEXT(C3)</f>
+        <v>=DATEVALUE("1/25/2023")</v>
+      </c>
+      <c r="C3" s="23">
+        <f>DATEVALUE("1/25/2023")</f>
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=DAY(G4)</v>
+      </c>
+      <c r="C4">
+        <f ca="1">DAY(G4)</f>
+        <v>27</v>
+      </c>
+      <c r="G4" s="23">
+        <f ca="1">TODAY()+4</f>
+        <v>44953</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=DAYS(G4,G5)</v>
+      </c>
+      <c r="C5">
+        <f ca="1">_xlfn.DAYS(G4,G5)</f>
+        <v>4</v>
+      </c>
+      <c r="G5" s="23">
+        <f ca="1">TODAY()</f>
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=DAYS360(G5,G4)</v>
+      </c>
+      <c r="C6">
+        <f ca="1">DAYS360(G5,G4)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=EDATE(G7,3)</v>
+      </c>
+      <c r="C7" s="23">
+        <f ca="1">EDATE(G7,3)</f>
+        <v>45039</v>
+      </c>
+      <c r="G7" s="23">
+        <f ca="1">TODAY()</f>
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=EOMONTH(G8,3)</v>
+      </c>
+      <c r="C8" s="23">
+        <f ca="1">EOMONTH(G8,3)</f>
+        <v>45046</v>
+      </c>
+      <c r="G8" s="23">
+        <f ca="1">TODAY()</f>
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=HOUR(G9)</v>
+      </c>
+      <c r="C9">
+        <f>HOUR(G9)</f>
+        <v>2</v>
+      </c>
+      <c r="G9" s="24">
+        <f>TIME(2,3,20)</f>
+        <v>8.564814814814814E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=MINUTE(G9)</v>
+      </c>
+      <c r="C10">
+        <f>MINUTE(G9)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=ISOWEEKNUM(G11)</v>
+      </c>
+      <c r="C11">
+        <f ca="1">_xlfn.ISOWEEKNUM(G11)</f>
+        <v>4</v>
+      </c>
+      <c r="G11" s="23">
+        <f ca="1">TODAY()+1</f>
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=MINUTE(G12)</v>
+      </c>
+      <c r="C12">
+        <f>MINUTE(G12)</f>
+        <v>6</v>
+      </c>
+      <c r="G12" s="24">
+        <f>TIME(5,65,70)</f>
+        <v>0.25428240740740743</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=MONTH(G13)</v>
+      </c>
+      <c r="C13">
+        <f>MONTH(G13)</f>
+        <v>2</v>
+      </c>
+      <c r="G13" s="23">
+        <f>DATE(2022,1,32)</f>
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=TEXT(G14,"DD-MM-YYYY")</v>
+      </c>
+      <c r="C14" t="str">
+        <f>TEXT(G14,"DD-MM-YYYY")</f>
+        <v>01-02-2022</v>
+      </c>
+      <c r="G14" s="23">
+        <f>G13</f>
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=NETWORKDAYS(E15,F15)</v>
+      </c>
+      <c r="C15">
+        <f>NETWORKDAYS(E15,F15)</f>
+        <v>7</v>
+      </c>
+      <c r="E15" s="23">
+        <f>DATE(2023,1,1)</f>
+        <v>44927</v>
+      </c>
+      <c r="F15" s="23">
+        <f>DATE(2023,1,10)</f>
+        <v>44936</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=NETWORKDAYS.INTL(E16,F16,11)</v>
+      </c>
+      <c r="C16">
+        <f>NETWORKDAYS.INTL(E16,F16,11)</f>
+        <v>8</v>
+      </c>
+      <c r="E16" s="23">
+        <f>DATE(2023,1,1)</f>
+        <v>44927</v>
+      </c>
+      <c r="F16" s="23">
+        <f>DATE(2023,1,10)</f>
+        <v>44936</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=NOW()</v>
+      </c>
+      <c r="C17" s="26">
+        <f ca="1">NOW()</f>
+        <v>44949.828816435183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=TEXT(NOW(),"HH-MM")</v>
+      </c>
+      <c r="C18" t="str">
+        <f ca="1">TEXT(NOW(),"HH-MM")</f>
+        <v>19-53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=SECOND(E19)</v>
+      </c>
+      <c r="C19">
+        <f>SECOND(E19)</f>
+        <v>20</v>
+      </c>
+      <c r="E19" s="27">
+        <f>TIME(20,2,20)</f>
+        <v>0.8349537037037037</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=TIME(12,5,10)</v>
+      </c>
+      <c r="C20" s="27">
+        <f>TIME(12,5,10)</f>
+        <v>0.50358796296296293</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=TIMEVALUE("12:00:34")</v>
+      </c>
+      <c r="C21" s="27">
+        <f>TIMEVALUE("12:00:34")</f>
+        <v>0.50039351851851854</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=TODAY()</v>
+      </c>
+      <c r="C22" s="23">
+        <f ca="1">TODAY()</f>
+        <v>44949</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B146"/>
   <sheetViews>
     <sheetView topLeftCell="A86" workbookViewId="0">
       <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -1901,7 +2195,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1910,7 +2204,7 @@
         <v>_x0001_</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1919,7 +2213,7 @@
         <v>_x0002_</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1928,7 +2222,7 @@
         <v>_x0003_</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1937,7 +2231,7 @@
         <v>_x0004_</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1946,7 +2240,7 @@
         <v>_x0005_</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1955,7 +2249,7 @@
         <v>_x0006_</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1964,7 +2258,7 @@
         <v>_x0007_</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1973,7 +2267,7 @@
         <v>_x0008_</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1982,7 +2276,7 @@
         <v xml:space="preserve">	</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1992,7 +2286,7 @@
 </v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2001,7 +2295,7 @@
         <v>_x000B_</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2010,7 +2304,7 @@
         <v>_x000C_</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2019,7 +2313,7 @@
         <v>_x000D_</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2028,7 +2322,7 @@
         <v>_x000E_</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2037,7 +2331,7 @@
         <v>_x000F_</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2046,7 +2340,7 @@
         <v>_x0010_</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2055,7 +2349,7 @@
         <v>_x0011_</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2064,7 +2358,7 @@
         <v>_x0012_</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2073,7 +2367,7 @@
         <v>_x0013_</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2082,7 +2376,7 @@
         <v>_x0014_</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2091,7 +2385,7 @@
         <v>_x0015_</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2100,7 +2394,7 @@
         <v>_x0016_</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2109,7 +2403,7 @@
         <v>_x0017_</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2118,7 +2412,7 @@
         <v>_x0018_</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2127,7 +2421,7 @@
         <v>_x0019_</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2136,7 +2430,7 @@
         <v>_x001A_</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2145,7 +2439,7 @@
         <v>_x001B_</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2154,7 +2448,7 @@
         <v>_x001C_</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2163,7 +2457,7 @@
         <v>_x001D_</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2172,7 +2466,7 @@
         <v>_x001E_</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2181,7 +2475,7 @@
         <v>_x001F_</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2190,7 +2484,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2199,7 +2493,7 @@
         <v>!</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2208,7 +2502,7 @@
         <v>"</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2217,7 +2511,7 @@
         <v>#</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2226,7 +2520,7 @@
         <v>$</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2235,7 +2529,7 @@
         <v>%</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2244,7 +2538,7 @@
         <v>&amp;</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2253,7 +2547,7 @@
         <v>'</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2262,7 +2556,7 @@
         <v>(</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2271,7 +2565,7 @@
         <v>)</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2280,7 +2574,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2289,7 +2583,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2298,7 +2592,7 @@
         <v>,</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2307,7 +2601,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2316,7 +2610,7 @@
         <v>.</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2325,7 +2619,7 @@
         <v>/</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2334,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2343,7 +2637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2352,7 +2646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2361,7 +2655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2370,7 +2664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2379,7 +2673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2388,7 +2682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2397,7 +2691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2406,7 +2700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2415,7 +2709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2424,7 +2718,7 @@
         <v>:</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2433,7 +2727,7 @@
         <v>;</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2442,7 +2736,7 @@
         <v>&lt;</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>61</v>
       </c>
@@ -2451,7 +2745,7 @@
         <v>=</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>62</v>
       </c>
@@ -2460,7 +2754,7 @@
         <v>&gt;</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>63</v>
       </c>
@@ -2469,7 +2763,7 @@
         <v>?</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>64</v>
       </c>
@@ -2478,7 +2772,7 @@
         <v>@</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>65</v>
       </c>
@@ -2487,7 +2781,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>66</v>
       </c>
@@ -2496,7 +2790,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>67</v>
       </c>
@@ -2505,7 +2799,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>68</v>
       </c>
@@ -2514,7 +2808,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>69</v>
       </c>
@@ -2523,7 +2817,7 @@
         <v>E</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>70</v>
       </c>
@@ -2532,7 +2826,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>71</v>
       </c>
@@ -2541,7 +2835,7 @@
         <v>G</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>72</v>
       </c>
@@ -2550,7 +2844,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>73</v>
       </c>
@@ -2559,7 +2853,7 @@
         <v>I</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>74</v>
       </c>
@@ -2568,7 +2862,7 @@
         <v>J</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>75</v>
       </c>
@@ -2577,7 +2871,7 @@
         <v>K</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>76</v>
       </c>
@@ -2586,7 +2880,7 @@
         <v>L</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>77</v>
       </c>
@@ -2595,7 +2889,7 @@
         <v>M</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>78</v>
       </c>
@@ -2604,7 +2898,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>79</v>
       </c>
@@ -2613,7 +2907,7 @@
         <v>O</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>80</v>
       </c>
@@ -2622,7 +2916,7 @@
         <v>P</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>81</v>
       </c>
@@ -2631,7 +2925,7 @@
         <v>Q</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>82</v>
       </c>
@@ -2640,7 +2934,7 @@
         <v>R</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>83</v>
       </c>
@@ -2649,7 +2943,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>84</v>
       </c>
@@ -2658,7 +2952,7 @@
         <v>T</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>85</v>
       </c>
@@ -2667,7 +2961,7 @@
         <v>U</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>86</v>
       </c>
@@ -2676,7 +2970,7 @@
         <v>V</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>87</v>
       </c>
@@ -2685,7 +2979,7 @@
         <v>W</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>88</v>
       </c>
@@ -2694,7 +2988,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>89</v>
       </c>
@@ -2703,7 +2997,7 @@
         <v>Y</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>90</v>
       </c>
@@ -2712,7 +3006,7 @@
         <v>Z</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>91</v>
       </c>
@@ -2721,7 +3015,7 @@
         <v>[</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>92</v>
       </c>
@@ -2730,7 +3024,7 @@
         <v>\</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>93</v>
       </c>
@@ -2739,7 +3033,7 @@
         <v>]</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>94</v>
       </c>
@@ -2748,7 +3042,7 @@
         <v>^</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>95</v>
       </c>
@@ -2757,7 +3051,7 @@
         <v>_</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>96</v>
       </c>
@@ -2766,7 +3060,7 @@
         <v>`</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>97</v>
       </c>
@@ -2775,7 +3069,7 @@
         <v>a</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>98</v>
       </c>
@@ -2784,7 +3078,7 @@
         <v>b</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>99</v>
       </c>
@@ -2793,7 +3087,7 @@
         <v>c</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>100</v>
       </c>
@@ -2802,7 +3096,7 @@
         <v>d</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <v>101</v>
       </c>
@@ -2811,7 +3105,7 @@
         <v>e</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <v>102</v>
       </c>
@@ -2820,7 +3114,7 @@
         <v>f</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <v>103</v>
       </c>
@@ -2829,7 +3123,7 @@
         <v>g</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <v>104</v>
       </c>
@@ -2838,7 +3132,7 @@
         <v>h</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <v>105</v>
       </c>
@@ -2847,7 +3141,7 @@
         <v>i</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <v>106</v>
       </c>
@@ -2856,7 +3150,7 @@
         <v>j</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <v>107</v>
       </c>
@@ -2865,7 +3159,7 @@
         <v>k</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <v>108</v>
       </c>
@@ -2874,7 +3168,7 @@
         <v>l</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <v>109</v>
       </c>
@@ -2883,7 +3177,7 @@
         <v>m</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <v>110</v>
       </c>
@@ -2892,7 +3186,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>111</v>
       </c>
@@ -2901,7 +3195,7 @@
         <v>o</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>112</v>
       </c>
@@ -2910,7 +3204,7 @@
         <v>p</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <v>113</v>
       </c>
@@ -2919,7 +3213,7 @@
         <v>q</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <v>114</v>
       </c>
@@ -2928,7 +3222,7 @@
         <v>r</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>115</v>
       </c>
@@ -2937,7 +3231,7 @@
         <v>s</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>116</v>
       </c>
@@ -2946,7 +3240,7 @@
         <v>t</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>117</v>
       </c>
@@ -2955,7 +3249,7 @@
         <v>u</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>118</v>
       </c>
@@ -2964,7 +3258,7 @@
         <v>v</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>119</v>
       </c>
@@ -2973,7 +3267,7 @@
         <v>w</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>120</v>
       </c>
@@ -2982,7 +3276,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>121</v>
       </c>
@@ -2991,7 +3285,7 @@
         <v>y</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <v>122</v>
       </c>
@@ -3000,7 +3294,7 @@
         <v>z</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
         <v>123</v>
       </c>
@@ -3009,7 +3303,7 @@
         <v>{</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
         <v>124</v>
       </c>
@@ -3018,7 +3312,7 @@
         <v>|</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
         <v>125</v>
       </c>
@@ -3027,7 +3321,7 @@
         <v>}</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <v>126</v>
       </c>
@@ -3036,7 +3330,7 @@
         <v>~</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>127</v>
       </c>
@@ -3045,7 +3339,7 @@
         <v></v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>128</v>
       </c>
@@ -3054,7 +3348,7 @@
         <v>€</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>129</v>
       </c>
@@ -3063,7 +3357,7 @@
         <v></v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>130</v>
       </c>
@@ -3072,7 +3366,7 @@
         <v>‚</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>131</v>
       </c>
@@ -3081,7 +3375,7 @@
         <v>ƒ</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>132</v>
       </c>
@@ -3090,7 +3384,7 @@
         <v>„</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
         <v>133</v>
       </c>
@@ -3099,7 +3393,7 @@
         <v>…</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
         <v>134</v>
       </c>
@@ -3108,7 +3402,7 @@
         <v>†</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <v>135</v>
       </c>
@@ -3117,7 +3411,7 @@
         <v>‡</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <v>136</v>
       </c>
@@ -3126,7 +3420,7 @@
         <v>ˆ</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <v>137</v>
       </c>
@@ -3135,7 +3429,7 @@
         <v>‰</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>138</v>
       </c>
@@ -3144,7 +3438,7 @@
         <v>Š</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>139</v>
       </c>
@@ -3153,7 +3447,7 @@
         <v>‹</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
         <v>140</v>
       </c>
@@ -3162,7 +3456,7 @@
         <v>Œ</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
         <v>141</v>
       </c>
@@ -3171,7 +3465,7 @@
         <v></v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
         <v>142</v>
       </c>
@@ -3180,7 +3474,7 @@
         <v>Ž</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
         <v>143</v>
       </c>
@@ -3189,7 +3483,7 @@
         <v></v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <v>144</v>
       </c>
@@ -3206,7 +3500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:C5"/>
   <sheetViews>
@@ -3214,14 +3508,14 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C4">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C5">
         <v>454</v>
       </c>

--- a/BASIC/Formula.xlsx
+++ b/BASIC/Formula.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="7440" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="7440" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Logical" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="LOOKUP &amp; REFRENCES" sheetId="8" r:id="rId5"/>
     <sheet name="ASCII" sheetId="3" r:id="rId6"/>
     <sheet name="Maths" sheetId="10" r:id="rId7"/>
-    <sheet name="Roman table" sheetId="5" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId8"/>
+    <sheet name="Roman table" sheetId="5" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="data" localSheetId="4">'LOOKUP &amp; REFRENCES'!$G$7:$O$207</definedName>
@@ -27,7 +28,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="149">
   <si>
     <t>A</t>
   </si>
@@ -505,6 +506,21 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Simran</t>
+  </si>
+  <si>
+    <t>READY</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>OUTPUT</t>
+  </si>
+  <si>
+    <t>READY/DISPATCH</t>
   </si>
 </sst>
 </file>
@@ -4006,7 +4022,7 @@
       </c>
       <c r="C31" s="1">
         <f ca="1">RANDBETWEEN(1,99)</f>
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="D31" s="1" t="str">
         <f ca="1">IF(C31&gt;33,B31,"+")</f>
@@ -4019,7 +4035,7 @@
       </c>
       <c r="C32" s="1">
         <f t="shared" ref="C32:C41" ca="1" si="4">RANDBETWEEN(1,99)</f>
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="D32" s="1" t="str">
         <f t="shared" ref="D32:D41" ca="1" si="5">IF(C32&gt;33,B32,"+")</f>
@@ -4032,11 +4048,11 @@
       </c>
       <c r="C33" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D33" s="1" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>+</v>
+        <v>A3</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -4045,7 +4061,7 @@
       </c>
       <c r="C34" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="D34" s="1" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4058,7 +4074,7 @@
       </c>
       <c r="C35" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="D35" s="1" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4071,7 +4087,7 @@
       </c>
       <c r="C36" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="D36" s="1" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4084,11 +4100,11 @@
       </c>
       <c r="C37" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D37" s="1" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>+</v>
+        <v>A7</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -4097,11 +4113,11 @@
       </c>
       <c r="C38" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D38" s="1" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>A8</v>
+        <v>+</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -4110,7 +4126,7 @@
       </c>
       <c r="C39" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D39" s="1" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4123,11 +4139,11 @@
       </c>
       <c r="C40" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D40" s="1" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>A10</v>
+        <v>+</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -4136,7 +4152,7 @@
       </c>
       <c r="C41" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D41" s="1" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4705,11 +4721,11 @@
       </c>
       <c r="C4">
         <f ca="1">DAY(G4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4" s="23">
         <f ca="1">TODAY()+4</f>
-        <v>44959</v>
+        <v>44961</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4723,7 +4739,7 @@
       </c>
       <c r="G5" s="23">
         <f ca="1">TODAY()</f>
-        <v>44955</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4733,7 +4749,7 @@
       </c>
       <c r="C6">
         <f ca="1">DAYS360(G5,G4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4743,11 +4759,11 @@
       </c>
       <c r="C7" s="23">
         <f ca="1">EDATE(G7,3)</f>
-        <v>45045</v>
+        <v>45046</v>
       </c>
       <c r="G7" s="23">
         <f ca="1">TODAY()</f>
-        <v>44955</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4761,7 +4777,7 @@
       </c>
       <c r="G8" s="23">
         <f ca="1">TODAY()</f>
-        <v>44955</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4799,7 +4815,7 @@
       </c>
       <c r="G11" s="23">
         <f ca="1">TODAY()+1</f>
-        <v>44956</v>
+        <v>44958</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4887,7 +4903,7 @@
       </c>
       <c r="C17" s="25">
         <f ca="1">NOW()</f>
-        <v>44955.853172685187</v>
+        <v>44957.842880324075</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4897,7 +4913,7 @@
       </c>
       <c r="C18" t="str">
         <f ca="1">TEXT(NOW(),"HH-MM")</f>
-        <v>20-28</v>
+        <v>20-13</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4941,7 +4957,7 @@
       </c>
       <c r="C22" s="23">
         <f ca="1">TODAY()</f>
-        <v>44955</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -18587,15 +18603,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:G18"/>
+  <dimension ref="C1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:7" x14ac:dyDescent="0.55000000000000004">
@@ -18613,7 +18630,7 @@
     </row>
     <row r="2" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C18" ca="1" si="0">_xlfn.FORMULATEXT(D2)</f>
+        <f t="shared" ref="C2:C33" ca="1" si="0">_xlfn.FORMULATEXT(D2)</f>
         <v>=ABS(E2)</v>
       </c>
       <c r="D2">
@@ -18795,7 +18812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=GCD(15,21)</v>
@@ -18805,7 +18822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=LCM(15,21)</v>
@@ -18813,6 +18830,274 @@
       <c r="D18">
         <f>LCM(15,21)</f>
         <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=ODD(F19)</v>
+      </c>
+      <c r="D19">
+        <f>ODD(F19)</f>
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=PI()</v>
+      </c>
+      <c r="D20">
+        <f>PI()</f>
+        <v>3.1415926535897931</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=POWER(F21,G21)</v>
+      </c>
+      <c r="D21">
+        <f>POWER(F21,G21)</f>
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=PRODUCT(F22,G22)</v>
+      </c>
+      <c r="D22">
+        <f>PRODUCT(F22,G22)</f>
+        <v>16</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=QUOTIENT(F23,G23)</v>
+      </c>
+      <c r="D23">
+        <f>QUOTIENT(F23,G23)</f>
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>8</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C24" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=RAND()</v>
+      </c>
+      <c r="D24">
+        <f ca="1">RAND()</f>
+        <v>0.87870323797455285</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C25" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=RANDBETWEEN(1,99)</v>
+      </c>
+      <c r="D25">
+        <f ca="1">RANDBETWEEN(1,99)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C26" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=ROMAN(19)</v>
+      </c>
+      <c r="D26" t="str">
+        <f>ROMAN(19)</f>
+        <v>XIX</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C27" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=ROUND(7.789,2)</v>
+      </c>
+      <c r="D27">
+        <f>ROUND(7.789,2)</f>
+        <v>7.79</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=ROUNDDOWN(5.456,2)</v>
+      </c>
+      <c r="D28">
+        <f>ROUNDDOWN(5.456,2)</f>
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C29" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=ROUNDUP(2.785,1)</v>
+      </c>
+      <c r="D29">
+        <f>ROUNDUP(2.785,1)</f>
+        <v>2.8000000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C30" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=SIGN(E30)</v>
+      </c>
+      <c r="D30">
+        <f>SIGN(E30)</f>
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>980238325</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C31" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=SIGN(E31)</v>
+      </c>
+      <c r="D31">
+        <f>SIGN(E31)</f>
+        <v>-1</v>
+      </c>
+      <c r="E31">
+        <v>-2375398257925</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C32" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=SIGN(E32)</v>
+      </c>
+      <c r="D32">
+        <f>SIGN(E32)</f>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C33" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=SQRT(E33)</v>
+      </c>
+      <c r="D33">
+        <f>SQRT(E33)</f>
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E41" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E43" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E44" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E45" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E48" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F49">
+        <f>SUM(F41:F48)</f>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E51" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51">
+        <f>SUMIF(E41:E48,"=ajay",F41:F48)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E52">
+        <f>SUMIF(E41:E48,"&lt;&gt;ajay",F41:F48)</f>
+        <v>1350</v>
       </c>
     </row>
   </sheetData>
@@ -18821,6 +19106,129 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F2" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(F4)</f>
+        <v>=IF(D4="READY","",IF(E4&lt;TODAY(),"Urgent Call",""))</v>
+      </c>
+    </row>
+    <row r="3" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="23">
+        <f ca="1">DATE(2023,1,RANDBETWEEN(1,60))</f>
+        <v>44941</v>
+      </c>
+      <c r="F4" t="str">
+        <f ca="1">IF(D4="READY","",IF(E4&lt;TODAY(),"Urgent Call",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E5" s="23">
+        <f t="shared" ref="E5:E11" ca="1" si="0">DATE(2023,1,RANDBETWEEN(1,60))</f>
+        <v>44930</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" ref="F5:F11" ca="1" si="1">IF(D5="READY","",IF(E5&lt;TODAY(),"Urgent Call",""))</f>
+        <v>Urgent Call</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E6" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>44956</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Urgent Call</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E7" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>44935</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Urgent Call</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E8" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>44965</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>44948</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E10" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>44939</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Urgent Call</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" s="23">
+        <f t="shared" ca="1" si="0"/>
+        <v>44981</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:E148"/>
   <sheetViews>
